--- a/src/experiments/results/main.xlsx
+++ b/src/experiments/results/main.xlsx
@@ -1341,23 +1341,23 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>POINT (7.043315311922979 49.30600054426942)</t>
+          <t>POINT (6.9355980807587105 49.364007303777186)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>10041</v>
+        <v>10043</v>
       </c>
       <c r="C30" t="n">
-        <v>687653890</v>
+        <v>364882131</v>
       </c>
       <c r="D30" t="n">
         <v>300</v>
       </c>
       <c r="E30" t="n">
-        <v>49.30600054426942</v>
+        <v>49.36400730377719</v>
       </c>
       <c r="F30" t="n">
-        <v>7.043315311922979</v>
+        <v>6.935598080758711</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1368,23 +1368,23 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>POINT (6.9355980807587105 49.364007303777186)</t>
+          <t>POINT (7.001045558866386 49.401271550367575)</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>10043</v>
       </c>
       <c r="C31" t="n">
-        <v>364882131</v>
+        <v>419910303</v>
       </c>
       <c r="D31" t="n">
         <v>300</v>
       </c>
       <c r="E31" t="n">
-        <v>49.36400730377719</v>
+        <v>49.40127155036758</v>
       </c>
       <c r="F31" t="n">
-        <v>6.935598080758711</v>
+        <v>7.001045558866386</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1395,23 +1395,23 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>POINT (6.950952603408715 49.33048315182436)</t>
+          <t>POINT (7.029496440077044 49.403660960617195)</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>10043</v>
       </c>
       <c r="C32" t="n">
-        <v>264365825</v>
+        <v>388230747</v>
       </c>
       <c r="D32" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E32" t="n">
-        <v>49.33048315182436</v>
+        <v>49.4036609606172</v>
       </c>
       <c r="F32" t="n">
-        <v>6.950952603408715</v>
+        <v>7.029496440077044</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1422,23 +1422,23 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>POINT (7.029496440077044 49.403660960617195)</t>
+          <t>POINT (7.091227930374576 49.38422368213677)</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>10043</v>
       </c>
       <c r="C33" t="n">
-        <v>388230747</v>
+        <v>1264098455</v>
       </c>
       <c r="D33" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E33" t="n">
-        <v>49.4036609606172</v>
+        <v>49.38422368213677</v>
       </c>
       <c r="F33" t="n">
-        <v>7.029496440077044</v>
+        <v>7.091227930374576</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>

--- a/src/experiments/results/main.xlsx
+++ b/src/experiments/results/main.xlsx
@@ -1341,23 +1341,23 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>POINT (6.9355980807587105 49.364007303777186)</t>
+          <t>POINT (7.062489777661987 49.33362886719512)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>10043</v>
+        <v>10041</v>
       </c>
       <c r="C30" t="n">
-        <v>364882131</v>
+        <v>585337512</v>
       </c>
       <c r="D30" t="n">
         <v>300</v>
       </c>
       <c r="E30" t="n">
-        <v>49.36400730377719</v>
+        <v>49.33362886719512</v>
       </c>
       <c r="F30" t="n">
-        <v>6.935598080758711</v>
+        <v>7.062489777661987</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1368,23 +1368,23 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>POINT (7.001045558866386 49.401271550367575)</t>
+          <t>POINT (7.018256201104354 49.38219174401059)</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>10043</v>
       </c>
       <c r="C31" t="n">
-        <v>419910303</v>
+        <v>315502192</v>
       </c>
       <c r="D31" t="n">
         <v>300</v>
       </c>
       <c r="E31" t="n">
-        <v>49.40127155036758</v>
+        <v>49.38219174401059</v>
       </c>
       <c r="F31" t="n">
-        <v>7.001045558866386</v>
+        <v>7.018256201104354</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1395,23 +1395,23 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>POINT (7.029496440077044 49.403660960617195)</t>
+          <t>POINT (6.978377858535464 49.39632290005618)</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>10043</v>
       </c>
       <c r="C32" t="n">
-        <v>388230747</v>
+        <v>299898054</v>
       </c>
       <c r="D32" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E32" t="n">
-        <v>49.4036609606172</v>
+        <v>49.39632290005618</v>
       </c>
       <c r="F32" t="n">
-        <v>7.029496440077044</v>
+        <v>6.978377858535464</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1422,23 +1422,23 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>POINT (7.091227930374576 49.38422368213677)</t>
+          <t>POINT (7.006477401341017 49.38458637096774)</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>10043</v>
       </c>
       <c r="C33" t="n">
-        <v>1264098455</v>
+        <v>1519388866</v>
       </c>
       <c r="D33" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E33" t="n">
-        <v>49.38422368213677</v>
+        <v>49.38458637096774</v>
       </c>
       <c r="F33" t="n">
-        <v>7.091227930374576</v>
+        <v>7.006477401341017</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1449,23 +1449,23 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>POINT (6.845064246325758 49.347347761730724)</t>
+          <t>POINT (7.014796099125492 49.414356314473636)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10044</v>
+        <v>10043</v>
       </c>
       <c r="C34" t="n">
-        <v>3682758357</v>
+        <v>364884548</v>
       </c>
       <c r="D34" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="E34" t="n">
-        <v>49.34734776173072</v>
+        <v>49.41435631447364</v>
       </c>
       <c r="F34" t="n">
-        <v>6.845064246325758</v>
+        <v>7.014796099125492</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1476,23 +1476,23 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>POINT (6.9569815327422475 49.443945393819135)</t>
+          <t>POINT (6.864420019821734 49.36203214971603)</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>10044</v>
       </c>
       <c r="C35" t="n">
-        <v>678564337</v>
+        <v>449686357</v>
       </c>
       <c r="D35" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="E35" t="n">
-        <v>49.44394539381913</v>
+        <v>49.36203214971603</v>
       </c>
       <c r="F35" t="n">
-        <v>6.956981532742248</v>
+        <v>6.864420019821734</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1503,23 +1503,23 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>POINT (6.99174062698374 49.53654636644075)</t>
+          <t>POINT (6.8610966012751256 49.32815629441217)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10046</v>
+        <v>10044</v>
       </c>
       <c r="C36" t="n">
-        <v>5026608242</v>
+        <v>2592430218</v>
       </c>
       <c r="D36" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="E36" t="n">
-        <v>49.53654636644075</v>
+        <v>49.32815629441217</v>
       </c>
       <c r="F36" t="n">
-        <v>6.99174062698374</v>
+        <v>6.861096601275126</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1530,23 +1530,23 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>POINT (6.978869075810388 49.549449217474034)</t>
+          <t>POINT (6.953445233091757 49.45713451276023)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10046</v>
+        <v>10044</v>
       </c>
       <c r="C37" t="n">
-        <v>457131127</v>
+        <v>1555931481</v>
       </c>
       <c r="D37" t="n">
         <v>20</v>
       </c>
       <c r="E37" t="n">
-        <v>49.54944921747403</v>
+        <v>49.45713451276023</v>
       </c>
       <c r="F37" t="n">
-        <v>6.978869075810388</v>
+        <v>6.953445233091757</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1557,23 +1557,23 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>POINT (7.009616426955045 49.5273846658155)</t>
+          <t>POINT (7.0044367540917865 49.516566644031656)</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>10046</v>
       </c>
       <c r="C38" t="n">
-        <v>33742906</v>
+        <v>932351498</v>
       </c>
       <c r="D38" t="n">
         <v>20</v>
       </c>
       <c r="E38" t="n">
-        <v>49.5273846658155</v>
+        <v>49.51656664403166</v>
       </c>
       <c r="F38" t="n">
-        <v>7.009616426955045</v>
+        <v>7.004436754091786</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1584,23 +1584,23 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>POINT (7.048502357735613 49.52368999711358)</t>
+          <t>POINT (6.989507755822414 49.514674329923665)</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>10046</v>
       </c>
       <c r="C39" t="n">
-        <v>276835128</v>
+        <v>2533989378</v>
       </c>
       <c r="D39" t="n">
         <v>20</v>
       </c>
       <c r="E39" t="n">
-        <v>49.52368999711358</v>
+        <v>49.51467432992366</v>
       </c>
       <c r="F39" t="n">
-        <v>7.048502357735613</v>
+        <v>6.989507755822414</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
